--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -76,15 +76,9 @@
     <t>2021-10-28</t>
   </si>
   <si>
-    <t>2021-10-29</t>
-  </si>
-  <si>
     <t>2021-10-30</t>
   </si>
   <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
     <t>2021-11-02</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
     <t>2021-11-15</t>
   </si>
   <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
     <t>2021-11-18</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
     <t>2021-12-13</t>
   </si>
   <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
     <t>2021-12-16</t>
   </si>
   <si>
@@ -163,6 +163,9 @@
     <t>2021-12-23</t>
   </si>
   <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
     <t>2021-12-25</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t>2021-12-27</t>
   </si>
   <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
     <t>2021-12-31</t>
   </si>
   <si>
@@ -217,12 +217,15 @@
     <t>2022-01-22</t>
   </si>
   <si>
-    <t>2022-01-27</t>
+    <t>2022-01-25</t>
   </si>
   <si>
     <t>2022-01-28</t>
   </si>
   <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
     <t>2022-02-03</t>
   </si>
   <si>
@@ -265,15 +268,18 @@
     <t>2022-02-26</t>
   </si>
   <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
     <t>2022-03-03</t>
   </si>
   <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
     <t>2022-03-05</t>
   </si>
   <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
     <t>2022-03-07</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>2022-03-26</t>
   </si>
   <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
     <t>2022-03-31</t>
   </si>
   <si>
@@ -325,25 +334,19 @@
     <t>2022-04-04</t>
   </si>
   <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
     <t>2022-04-08</t>
   </si>
   <si>
     <t>2022-04-09</t>
   </si>
   <si>
-    <t>2022-04-15</t>
-  </si>
-  <si>
     <t>2022-04-16</t>
   </si>
   <si>
     <t>2022-04-17</t>
   </si>
   <si>
-    <t>2022-04-19</t>
+    <t>2022-04-18</t>
   </si>
   <si>
     <t>2022-04-21</t>
@@ -352,15 +355,15 @@
     <t>2022-04-23</t>
   </si>
   <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
     <t>2022-04-29</t>
   </si>
   <si>
     <t>2022-04-30</t>
   </si>
   <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
     <t>2022-05-05</t>
   </si>
   <si>
@@ -379,25 +382,19 @@
     <t>2022-05-15</t>
   </si>
   <si>
-    <t>2022-05-17</t>
+    <t>2022-05-19</t>
   </si>
   <si>
     <t>2022-05-21</t>
   </si>
   <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
     <t>2022-05-27</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
   </si>
   <si>
     <t>2022-06-10</t>
@@ -406,24 +403,30 @@
     <t>2022-06-11</t>
   </si>
   <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
     <t>15u</t>
   </si>
   <si>
+    <t>19u</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
     <t>18u45u</t>
   </si>
   <si>
-    <t>19u</t>
-  </si>
-  <si>
     <t>18u30</t>
   </si>
   <si>
     <t>Camp Nou</t>
   </si>
   <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
     <t>Emirates Stadium</t>
   </si>
   <si>
@@ -433,15 +436,12 @@
     <t>Staples Center</t>
   </si>
   <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
     <t>Anfield</t>
   </si>
   <si>
-    <t>Oracle Arena</t>
-  </si>
-  <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
     <t>AT&amp;T Stadium</t>
   </si>
   <si>
@@ -463,6 +463,9 @@
     <t>Stallions</t>
   </si>
   <si>
+    <t>Vipers</t>
+  </si>
+  <si>
     <t>Wolves</t>
   </si>
   <si>
@@ -472,13 +475,10 @@
     <t>Raptors</t>
   </si>
   <si>
+    <t>Cobras</t>
+  </si>
+  <si>
     <t>Eagles</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Vipers</t>
   </si>
   <si>
     <t>Falcons</t>
@@ -908,15 +908,15 @@
         <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -925,15 +925,15 @@
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
@@ -942,41 +942,41 @@
         <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -993,32 +993,32 @@
         <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>141</v>
@@ -1027,21 +1027,21 @@
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
         <v>148</v>
@@ -1049,44 +1049,44 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -1095,24 +1095,24 @@
         <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" t="s">
         <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
@@ -1146,21 +1146,21 @@
         <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
         <v>156</v>
@@ -1171,30 +1171,30 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
         <v>160</v>
@@ -1202,92 +1202,92 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
         <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>130</v>
@@ -1299,109 +1299,109 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1409,16 +1409,16 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1429,13 +1429,13 @@
         <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1443,33 +1443,33 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1480,13 +1480,13 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1497,13 +1497,13 @@
         <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1514,47 +1514,47 @@
         <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
         <v>153</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1562,16 +1562,16 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1579,16 +1579,16 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1596,16 +1596,16 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1613,16 +1613,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1630,16 +1630,16 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1647,33 +1647,33 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1684,13 +1684,13 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1701,13 +1701,13 @@
         <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1718,10 +1718,10 @@
         <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
         <v>149</v>
@@ -1732,16 +1732,16 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1752,13 +1752,13 @@
         <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1766,7 +1766,7 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
         <v>144</v>
@@ -1775,7 +1775,7 @@
         <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1792,7 +1792,7 @@
         <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1826,7 +1826,7 @@
         <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1843,7 +1843,7 @@
         <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1851,33 +1851,33 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1902,16 +1902,16 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1919,16 +1919,16 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1939,13 +1939,13 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1953,7 +1953,7 @@
         <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
         <v>144</v>
@@ -1962,7 +1962,7 @@
         <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1979,7 +1979,7 @@
         <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1996,58 +1996,58 @@
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2075,27 +2075,27 @@
         <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
         <v>158</v>
@@ -2103,36 +2103,36 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2149,24 +2149,24 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2174,16 +2174,16 @@
         <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2200,7 +2200,7 @@
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2217,7 +2217,7 @@
         <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2225,72 +2225,72 @@
         <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" t="s">
         <v>149</v>
-      </c>
-      <c r="E81" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
         <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
         <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" t="s">
         <v>152</v>
-      </c>
-      <c r="E84" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
         <v>130</v>
@@ -2302,29 +2302,29 @@
         <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
         <v>131</v>
@@ -2336,29 +2336,29 @@
         <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
@@ -2370,12 +2370,12 @@
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>130</v>
@@ -2387,32 +2387,32 @@
         <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" t="s">
         <v>151</v>
-      </c>
-      <c r="E91" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
         <v>144</v>
@@ -2421,80 +2421,80 @@
         <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" t="s">
         <v>158</v>
-      </c>
-      <c r="E93" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
         <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
         <v>134</v>
@@ -2506,12 +2506,12 @@
         <v>160</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
         <v>130</v>
@@ -2523,174 +2523,174 @@
         <v>156</v>
       </c>
       <c r="E98" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
         <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
         <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
         <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" t="s">
         <v>158</v>
@@ -2698,92 +2698,92 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
         <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E112" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
         <v>133</v>
@@ -2795,49 +2795,49 @@
         <v>154</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D116" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" t="s">
         <v>150</v>
-      </c>
-      <c r="E116" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
         <v>138</v>
@@ -2846,106 +2846,106 @@
         <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
         <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E123" t="s">
         <v>158</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
         <v>134</v>
@@ -2965,12 +2965,12 @@
         <v>160</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
@@ -2982,49 +2982,49 @@
         <v>156</v>
       </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E126" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B127" t="s">
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E127" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
         <v>144</v>
@@ -3033,46 +3033,46 @@
         <v>157</v>
       </c>
       <c r="E128" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E130" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B131" t="s">
         <v>134</v>
@@ -3084,21 +3084,21 @@
         <v>160</v>
       </c>
       <c r="E131" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E132" t="s">
         <v>153</v>
@@ -3106,41 +3106,41 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E134" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
         <v>130</v>
@@ -3152,24 +3152,24 @@
         <v>158</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E136" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3186,21 +3186,21 @@
         <v>148</v>
       </c>
       <c r="E137" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E138" t="s">
         <v>155</v>
@@ -3220,21 +3220,21 @@
         <v>160</v>
       </c>
       <c r="E139" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
         <v>156</v>
@@ -3242,16 +3242,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B141" t="s">
         <v>130</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E141" t="s">
         <v>157</v>
@@ -3259,16 +3259,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E142" t="s">
         <v>153</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B143" t="s">
         <v>130</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B144" t="s">
         <v>130</v>
@@ -3305,7 +3305,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3322,7 +3322,7 @@
         <v>154</v>
       </c>
       <c r="E145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3330,16 +3330,16 @@
         <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3347,16 +3347,16 @@
         <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3364,16 +3364,16 @@
         <v>121</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3384,13 +3384,13 @@
         <v>130</v>
       </c>
       <c r="C149" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3398,50 +3398,50 @@
         <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C150" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E150" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
         <v>130</v>
       </c>
       <c r="C151" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E151" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C152" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3449,16 +3449,16 @@
         <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E153" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3466,16 +3466,16 @@
         <v>126</v>
       </c>
       <c r="B154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D154" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3486,13 +3486,13 @@
         <v>130</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D155" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3500,16 +3500,16 @@
         <v>128</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3517,16 +3517,16 @@
         <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C157" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -31,9 +31,6 @@
     <t>Away</t>
   </si>
   <si>
-    <t>2021-10-01</t>
-  </si>
-  <si>
     <t>2021-10-02</t>
   </si>
   <si>
@@ -76,10 +73,13 @@
     <t>2021-10-28</t>
   </si>
   <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
     <t>2021-10-30</t>
   </si>
   <si>
-    <t>2021-11-02</t>
+    <t>2021-10-31</t>
   </si>
   <si>
     <t>2021-11-04</t>
@@ -88,27 +88,21 @@
     <t>2021-11-06</t>
   </si>
   <si>
-    <t>2021-11-07</t>
-  </si>
-  <si>
     <t>2021-11-11</t>
   </si>
   <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
     <t>2021-11-13</t>
   </si>
   <si>
     <t>2021-11-14</t>
   </si>
   <si>
-    <t>2021-11-15</t>
-  </si>
-  <si>
     <t>2021-11-16</t>
   </si>
   <si>
-    <t>2021-11-18</t>
-  </si>
-  <si>
     <t>2021-11-20</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>2021-11-30</t>
   </si>
   <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
     <t>2021-12-04</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>2021-12-09</t>
   </si>
   <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
     <t>2021-12-13</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>2021-12-23</t>
   </si>
   <si>
-    <t>2021-12-24</t>
-  </si>
-  <si>
     <t>2021-12-25</t>
   </si>
   <si>
@@ -175,6 +160,12 @@
     <t>2021-12-27</t>
   </si>
   <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>2022-01-06</t>
   </si>
   <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
     <t>2022-01-08</t>
   </si>
   <si>
@@ -202,12 +190,12 @@
     <t>2022-01-11</t>
   </si>
   <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
     <t>2022-01-15</t>
   </si>
   <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
     <t>2022-01-20</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>2022-01-28</t>
   </si>
   <si>
-    <t>2022-01-29</t>
-  </si>
-  <si>
     <t>2022-02-03</t>
   </si>
   <si>
@@ -235,12 +220,12 @@
     <t>2022-02-05</t>
   </si>
   <si>
-    <t>2022-02-06</t>
-  </si>
-  <si>
     <t>2022-02-07</t>
   </si>
   <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
     <t>2022-02-10</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>2022-02-22</t>
   </si>
   <si>
-    <t>2022-02-24</t>
-  </si>
-  <si>
     <t>2022-02-26</t>
   </si>
   <si>
@@ -280,15 +262,9 @@
     <t>2022-03-06</t>
   </si>
   <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
     <t>2022-03-08</t>
   </si>
   <si>
-    <t>2022-03-11</t>
-  </si>
-  <si>
     <t>2022-03-12</t>
   </si>
   <si>
@@ -304,12 +280,6 @@
     <t>2022-03-19</t>
   </si>
   <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>2022-03-22</t>
-  </si>
-  <si>
     <t>2022-03-24</t>
   </si>
   <si>
@@ -334,13 +304,19 @@
     <t>2022-04-04</t>
   </si>
   <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
     <t>2022-04-08</t>
   </si>
   <si>
     <t>2022-04-09</t>
   </si>
   <si>
-    <t>2022-04-16</t>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
   </si>
   <si>
     <t>2022-04-17</t>
@@ -349,28 +325,25 @@
     <t>2022-04-18</t>
   </si>
   <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
     <t>2022-04-23</t>
   </si>
   <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
     <t>2022-04-29</t>
   </si>
   <si>
     <t>2022-04-30</t>
   </si>
   <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
     <t>2022-05-05</t>
   </si>
   <si>
     <t>2022-05-06</t>
   </si>
   <si>
-    <t>2022-05-07</t>
+    <t>2022-05-08</t>
   </si>
   <si>
     <t>2022-05-13</t>
@@ -382,19 +355,34 @@
     <t>2022-05-15</t>
   </si>
   <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
     <t>2022-05-19</t>
   </si>
   <si>
     <t>2022-05-21</t>
   </si>
   <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
     <t>2022-05-27</t>
   </si>
   <si>
     <t>2022-05-29</t>
   </si>
   <si>
-    <t>2022-06-02</t>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
   </si>
   <si>
     <t>2022-06-10</t>
@@ -406,97 +394,109 @@
     <t>2022-06-12</t>
   </si>
   <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>19u</t>
+  </si>
+  <si>
     <t>15u</t>
   </si>
   <si>
-    <t>19u</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
     <t>18u45u</t>
   </si>
   <si>
     <t>18u30</t>
   </si>
   <si>
+    <t>18u</t>
+  </si>
+  <si>
+    <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
+    <t>AT&amp;T Stadium</t>
+  </si>
+  <si>
+    <t>Fenway Park</t>
+  </si>
+  <si>
+    <t>Allianz Arena</t>
+  </si>
+  <si>
+    <t>Madison Square Garden</t>
+  </si>
+  <si>
     <t>Camp Nou</t>
   </si>
   <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
-    <t>Emirates Stadium</t>
-  </si>
-  <si>
-    <t>Old Trafford</t>
-  </si>
-  <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
-    <t>Oracle Arena</t>
-  </si>
-  <si>
-    <t>Anfield</t>
-  </si>
-  <si>
-    <t>AT&amp;T Stadium</t>
-  </si>
-  <si>
-    <t>Fenway Park</t>
-  </si>
-  <si>
-    <t>Allianz Arena</t>
+    <t>Wembley Stadium</t>
   </si>
   <si>
     <t>Santiago Bernabeu</t>
   </si>
   <si>
-    <t>Madison Square Garden</t>
-  </si>
-  <si>
-    <t>Wembley Stadium</t>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Vipers</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>Thunderbolts</t>
   </si>
   <si>
     <t>Stallions</t>
   </si>
   <si>
-    <t>Vipers</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Warriors</t>
-  </si>
-  <si>
-    <t>Raptors</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Titans</t>
-  </si>
-  <si>
-    <t>Sharks</t>
+    <t>Hurricanes</t>
   </si>
   <si>
     <t>Lions</t>
-  </si>
-  <si>
-    <t>Thunderbolts</t>
-  </si>
-  <si>
-    <t>Hurricanes</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>135</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -908,7 +908,7 @@
         <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -916,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
@@ -942,7 +942,7 @@
         <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -950,16 +950,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -970,21 +970,21 @@
         <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>140</v>
@@ -993,7 +993,7 @@
         <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1001,16 +1001,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1035,16 +1035,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -1061,7 +1061,7 @@
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1069,16 +1069,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -1095,7 +1095,7 @@
         <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1103,33 +1103,33 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1137,16 +1137,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1154,16 +1154,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1171,75 +1171,75 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
         <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>138</v>
@@ -1248,21 +1248,21 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
         <v>156</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>144</v>
@@ -1282,15 +1282,15 @@
         <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>145</v>
@@ -1299,72 +1299,72 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
         <v>152</v>
@@ -1372,27 +1372,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>143</v>
@@ -1401,24 +1401,24 @@
         <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
         <v>151</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1426,16 +1426,16 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1443,7 +1443,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>144</v>
@@ -1452,24 +1452,24 @@
         <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1477,47 +1477,47 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
         <v>153</v>
@@ -1525,537 +1525,537 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
         <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
         <v>152</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
         <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
         <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
         <v>136</v>
@@ -2064,287 +2064,287 @@
         <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D81" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
         <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" t="s">
         <v>159</v>
-      </c>
-      <c r="E85" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
         <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
         <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
         <v>137</v>
@@ -2353,15 +2353,15 @@
         <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
         <v>147</v>
@@ -2370,15 +2370,15 @@
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
         <v>143</v>
@@ -2387,32 +2387,32 @@
         <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
         <v>144</v>
@@ -2421,32 +2421,32 @@
         <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
         <v>146</v>
@@ -2455,117 +2455,117 @@
         <v>159</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
         <v>145</v>
@@ -2574,32 +2574,32 @@
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
         <v>146</v>
@@ -2608,38 +2608,38 @@
         <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
         <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" t="s">
         <v>150</v>
@@ -2647,112 +2647,112 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" t="s">
         <v>153</v>
-      </c>
-      <c r="E111" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B112" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>146</v>
@@ -2761,177 +2761,177 @@
         <v>159</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E118" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2942,13 +2942,13 @@
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D123" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" t="s">
         <v>150</v>
-      </c>
-      <c r="E123" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2956,13 +2956,13 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E124" t="s">
         <v>154</v>
@@ -2973,75 +2973,75 @@
         <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D127" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E128" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3050,66 +3050,66 @@
         <v>149</v>
       </c>
       <c r="E129" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E132" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>139</v>
@@ -3118,58 +3118,58 @@
         <v>152</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E134" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3177,16 +3177,16 @@
         <v>113</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D137" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3194,24 +3194,24 @@
         <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
         <v>147</v>
@@ -3220,7 +3220,7 @@
         <v>160</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3231,13 +3231,13 @@
         <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3245,41 +3245,41 @@
         <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" t="s">
         <v>152</v>
-      </c>
-      <c r="E141" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C143" t="s">
         <v>145</v>
@@ -3288,58 +3288,58 @@
         <v>158</v>
       </c>
       <c r="E143" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E144" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B145" t="s">
         <v>133</v>
       </c>
       <c r="C145" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B146" t="s">
         <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E146" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3347,7 +3347,7 @@
         <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
         <v>137</v>
@@ -3356,7 +3356,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3364,16 +3364,16 @@
         <v>121</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3381,13 +3381,13 @@
         <v>122</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C149" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E149" t="s">
         <v>153</v>
@@ -3398,7 +3398,7 @@
         <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C150" t="s">
         <v>145</v>
@@ -3407,7 +3407,7 @@
         <v>158</v>
       </c>
       <c r="E150" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3418,30 +3418,30 @@
         <v>130</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E152" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3449,16 +3449,16 @@
         <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3466,16 +3466,16 @@
         <v>126</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3483,16 +3483,16 @@
         <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D155" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3500,24 +3500,24 @@
         <v>128</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C156" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
         <v>147</v>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,15 @@
     <t>Away</t>
   </si>
   <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
     <t>2021-10-02</t>
   </si>
   <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
     <t>2021-10-05</t>
   </si>
   <si>
@@ -73,21 +79,24 @@
     <t>2021-10-28</t>
   </si>
   <si>
-    <t>2021-10-29</t>
-  </si>
-  <si>
     <t>2021-10-30</t>
   </si>
   <si>
     <t>2021-10-31</t>
   </si>
   <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
     <t>2021-11-04</t>
   </si>
   <si>
     <t>2021-11-06</t>
   </si>
   <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
     <t>2021-11-11</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t>2021-11-14</t>
   </si>
   <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
     <t>2021-11-16</t>
   </si>
   <si>
@@ -121,9 +133,6 @@
     <t>2021-11-29</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
     <t>2021-12-04</t>
   </si>
   <si>
@@ -151,7 +160,7 @@
     <t>2021-12-23</t>
   </si>
   <si>
-    <t>2021-12-25</t>
+    <t>2021-12-24</t>
   </si>
   <si>
     <t>2021-12-26</t>
@@ -169,48 +178,48 @@
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
     <t>2022-01-02</t>
   </si>
   <si>
     <t>2022-01-06</t>
   </si>
   <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
     <t>2022-01-08</t>
   </si>
   <si>
     <t>2022-01-09</t>
   </si>
   <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
     <t>2022-01-11</t>
   </si>
   <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
     <t>2022-01-15</t>
   </si>
   <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
     <t>2022-01-20</t>
   </si>
   <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
     <t>2022-01-22</t>
   </si>
   <si>
     <t>2022-01-25</t>
   </si>
   <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
     <t>2022-01-28</t>
   </si>
   <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
     <t>2022-02-03</t>
   </si>
   <si>
@@ -220,15 +229,12 @@
     <t>2022-02-05</t>
   </si>
   <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
     <t>2022-02-07</t>
   </si>
   <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-10</t>
-  </si>
-  <si>
     <t>2022-02-12</t>
   </si>
   <si>
@@ -247,7 +253,7 @@
     <t>2022-02-22</t>
   </si>
   <si>
-    <t>2022-02-26</t>
+    <t>2022-02-24</t>
   </si>
   <si>
     <t>2022-02-27</t>
@@ -256,15 +262,21 @@
     <t>2022-03-03</t>
   </si>
   <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
     <t>2022-03-05</t>
   </si>
   <si>
-    <t>2022-03-06</t>
+    <t>2022-03-07</t>
   </si>
   <si>
     <t>2022-03-08</t>
   </si>
   <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
     <t>2022-03-12</t>
   </si>
   <si>
@@ -280,7 +292,7 @@
     <t>2022-03-19</t>
   </si>
   <si>
-    <t>2022-03-24</t>
+    <t>2022-03-21</t>
   </si>
   <si>
     <t>2022-03-26</t>
@@ -292,9 +304,6 @@
     <t>2022-03-31</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
     <t>2022-04-02</t>
   </si>
   <si>
@@ -313,37 +322,37 @@
     <t>2022-04-09</t>
   </si>
   <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
     <t>2022-04-15</t>
   </si>
   <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
     <t>2022-04-17</t>
   </si>
   <si>
-    <t>2022-04-18</t>
+    <t>2022-04-21</t>
   </si>
   <si>
     <t>2022-04-23</t>
   </si>
   <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
     <t>2022-04-29</t>
   </si>
   <si>
     <t>2022-04-30</t>
   </si>
   <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
     <t>2022-05-05</t>
   </si>
   <si>
     <t>2022-05-06</t>
   </si>
   <si>
-    <t>2022-05-08</t>
+    <t>2022-05-07</t>
   </si>
   <si>
     <t>2022-05-13</t>
@@ -352,9 +361,6 @@
     <t>2022-05-14</t>
   </si>
   <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
     <t>2022-05-16</t>
   </si>
   <si>
@@ -370,12 +376,12 @@
     <t>2022-05-27</t>
   </si>
   <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
     <t>2022-05-29</t>
   </si>
   <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
     <t>2022-05-31</t>
   </si>
   <si>
@@ -385,6 +391,9 @@
     <t>2022-06-04</t>
   </si>
   <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
     <t>2022-06-10</t>
   </si>
   <si>
@@ -403,97 +412,97 @@
     <t>2022-06-18</t>
   </si>
   <si>
+    <t>15u</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
+    <t>18u30</t>
+  </si>
+  <si>
+    <t>18u45u</t>
+  </si>
+  <si>
     <t>19u</t>
   </si>
   <si>
-    <t>15u</t>
-  </si>
-  <si>
-    <t>18u45u</t>
-  </si>
-  <si>
-    <t>18u30</t>
-  </si>
-  <si>
     <t>18u</t>
   </si>
   <si>
+    <t>Camp Nou</t>
+  </si>
+  <si>
     <t>Emirates Stadium</t>
   </si>
   <si>
+    <t>Wembley Stadium</t>
+  </si>
+  <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
     <t>Yankee Stadium</t>
   </si>
   <si>
-    <t>Old Trafford</t>
-  </si>
-  <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
-    <t>Anfield</t>
-  </si>
-  <si>
-    <t>Oracle Arena</t>
+    <t>Fenway Park</t>
   </si>
   <si>
     <t>AT&amp;T Stadium</t>
   </si>
   <si>
-    <t>Fenway Park</t>
+    <t>Madison Square Garden</t>
   </si>
   <si>
     <t>Allianz Arena</t>
   </si>
   <si>
-    <t>Madison Square Garden</t>
-  </si>
-  <si>
-    <t>Camp Nou</t>
-  </si>
-  <si>
-    <t>Wembley Stadium</t>
-  </si>
-  <si>
     <t>Santiago Bernabeu</t>
   </si>
   <si>
+    <t>Stallions</t>
+  </si>
+  <si>
     <t>Wolves</t>
   </si>
   <si>
+    <t>Hurricanes</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
     <t>Vipers</t>
   </si>
   <si>
-    <t>Warriors</t>
-  </si>
-  <si>
-    <t>Raptors</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Cobras</t>
+    <t>Titans</t>
   </si>
   <si>
     <t>Falcons</t>
   </si>
   <si>
-    <t>Titans</t>
+    <t>Thunderbolts</t>
   </si>
   <si>
     <t>Sharks</t>
-  </si>
-  <si>
-    <t>Thunderbolts</t>
-  </si>
-  <si>
-    <t>Stallions</t>
-  </si>
-  <si>
-    <t>Hurricanes</t>
   </si>
   <si>
     <t>Lions</t>
@@ -882,92 +891,92 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>139</v>
@@ -976,72 +985,72 @@
         <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
         <v>160</v>
@@ -1049,146 +1058,146 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
         <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>145</v>
@@ -1197,160 +1206,160 @@
         <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1358,64 +1367,64 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
         <v>151</v>
@@ -1423,33 +1432,33 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
@@ -1457,50 +1466,50 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>154</v>
@@ -1508,95 +1517,95 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
         <v>154</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>144</v>
@@ -1610,33 +1619,33 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
         <v>158</v>
@@ -1644,78 +1653,78 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
         <v>160</v>
-      </c>
-      <c r="E48" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
         <v>144</v>
@@ -1724,21 +1733,21 @@
         <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
         <v>160</v>
@@ -1746,16 +1755,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1763,75 +1772,75 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
@@ -1843,157 +1852,157 @@
         <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
         <v>158</v>
@@ -2001,10 +2010,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>147</v>
@@ -2013,15 +2022,15 @@
         <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
         <v>144</v>
@@ -2030,41 +2039,41 @@
         <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2072,16 +2081,16 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2089,16 +2098,16 @@
         <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2106,16 +2115,16 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2123,16 +2132,16 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2140,13 +2149,13 @@
         <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>152</v>
@@ -2154,129 +2163,129 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
         <v>144</v>
@@ -2285,157 +2294,157 @@
         <v>157</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
         <v>152</v>
@@ -2443,10 +2452,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>146</v>
@@ -2460,129 +2469,129 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
         <v>139</v>
@@ -2591,134 +2600,134 @@
         <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D107" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
         <v>145</v>
@@ -2727,32 +2736,32 @@
         <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
         <v>146</v>
@@ -2761,15 +2770,15 @@
         <v>159</v>
       </c>
       <c r="E112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s">
         <v>142</v>
@@ -2778,134 +2787,134 @@
         <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E114" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E119" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C121" t="s">
         <v>142</v>
@@ -2914,219 +2923,219 @@
         <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E124" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E126" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" t="s">
         <v>159</v>
-      </c>
-      <c r="E128" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
         <v>145</v>
@@ -3135,21 +3144,21 @@
         <v>158</v>
       </c>
       <c r="E134" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E135" t="s">
         <v>157</v>
@@ -3157,10 +3166,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
         <v>146</v>
@@ -3169,15 +3178,15 @@
         <v>159</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
         <v>142</v>
@@ -3191,95 +3200,95 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E139" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B140" t="s">
         <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C143" t="s">
         <v>145</v>
@@ -3288,100 +3297,100 @@
         <v>158</v>
       </c>
       <c r="E143" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E145" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C149" t="s">
         <v>147</v>
@@ -3390,143 +3399,143 @@
         <v>160</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C151" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C152" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D152" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E152" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C153" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D154" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C155" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E155" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C156" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -40,9 +40,6 @@
     <t>2021-10-03</t>
   </si>
   <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
     <t>2021-10-07</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>2021-10-19</t>
   </si>
   <si>
-    <t>2021-10-21</t>
-  </si>
-  <si>
     <t>2021-10-23</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>2021-11-11</t>
   </si>
   <si>
-    <t>2021-11-12</t>
-  </si>
-  <si>
     <t>2021-11-13</t>
   </si>
   <si>
@@ -154,30 +145,30 @@
     <t>2021-12-18</t>
   </si>
   <si>
-    <t>2021-12-19</t>
-  </si>
-  <si>
     <t>2021-12-23</t>
   </si>
   <si>
     <t>2021-12-24</t>
   </si>
   <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
     <t>2021-12-26</t>
   </si>
   <si>
     <t>2021-12-27</t>
   </si>
   <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
     <t>2021-12-30</t>
   </si>
   <si>
     <t>2021-12-31</t>
   </si>
   <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
     <t>2022-01-02</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>2022-03-11</t>
   </si>
   <si>
-    <t>2022-03-12</t>
-  </si>
-  <si>
     <t>2022-03-13</t>
   </si>
   <si>
@@ -304,6 +292,9 @@
     <t>2022-03-31</t>
   </si>
   <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
     <t>2022-04-02</t>
   </si>
   <si>
@@ -331,6 +322,9 @@
     <t>2022-04-17</t>
   </si>
   <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
     <t>2022-04-21</t>
   </si>
   <si>
@@ -364,6 +358,9 @@
     <t>2022-05-16</t>
   </si>
   <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
     <t>2022-05-19</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
     <t>2022-05-31</t>
   </si>
   <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
     <t>2022-06-03</t>
   </si>
   <si>
@@ -418,15 +418,15 @@
     <t>22u</t>
   </si>
   <si>
+    <t>19u</t>
+  </si>
+  <si>
     <t>18u30</t>
   </si>
   <si>
     <t>18u45u</t>
   </si>
   <si>
-    <t>19u</t>
-  </si>
-  <si>
     <t>18u</t>
   </si>
   <si>
@@ -436,25 +436,28 @@
     <t>Emirates Stadium</t>
   </si>
   <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
     <t>Wembley Stadium</t>
   </si>
   <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
+    <t>Fenway Park</t>
+  </si>
+  <si>
     <t>Old Trafford</t>
   </si>
   <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
-    <t>Anfield</t>
-  </si>
-  <si>
-    <t>Oracle Arena</t>
-  </si>
-  <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
-    <t>Fenway Park</t>
+    <t>Santiago Bernabeu</t>
   </si>
   <si>
     <t>AT&amp;T Stadium</t>
@@ -466,34 +469,34 @@
     <t>Allianz Arena</t>
   </si>
   <si>
-    <t>Santiago Bernabeu</t>
-  </si>
-  <si>
     <t>Stallions</t>
   </si>
   <si>
     <t>Wolves</t>
   </si>
   <si>
+    <t>Vipers</t>
+  </si>
+  <si>
     <t>Hurricanes</t>
   </si>
   <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
     <t>Warriors</t>
   </si>
   <si>
-    <t>Raptors</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Vipers</t>
-  </si>
-  <si>
-    <t>Titans</t>
+    <t>Lions</t>
   </si>
   <si>
     <t>Falcons</t>
@@ -503,9 +506,6 @@
   </si>
   <si>
     <t>Sharks</t>
-  </si>
-  <si>
-    <t>Lions</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
         <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -917,12 +917,12 @@
         <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -934,15 +934,15 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>141</v>
@@ -951,12 +951,12 @@
         <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
@@ -968,12 +968,12 @@
         <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>143</v>
@@ -1002,15 +1002,15 @@
         <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>144</v>
@@ -1024,50 +1024,50 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
         <v>155</v>
@@ -1075,58 +1075,58 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>133</v>
@@ -1138,89 +1138,89 @@
         <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
         <v>158</v>
-      </c>
-      <c r="E20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
         <v>151</v>
@@ -1228,24 +1228,24 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>132</v>
@@ -1262,27 +1262,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>150</v>
@@ -1296,58 +1296,58 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
         <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -1359,21 +1359,21 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>163</v>
@@ -1381,16 +1381,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>146</v>
@@ -1410,89 +1410,89 @@
         <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
         <v>152</v>
@@ -1500,50 +1500,50 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
         <v>155</v>
@@ -1551,84 +1551,84 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
         <v>151</v>
@@ -1636,41 +1636,41 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>132</v>
@@ -1682,21 +1682,21 @@
         <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
         <v>151</v>
@@ -1704,194 +1704,194 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
         <v>132</v>
@@ -1903,55 +1903,55 @@
         <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
         <v>158</v>
-      </c>
-      <c r="E63" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
         <v>162</v>
@@ -1959,16 +1959,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
         <v>155</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
@@ -1988,72 +1988,72 @@
         <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
         <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
         <v>155</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
         <v>133</v>
@@ -2073,21 +2073,21 @@
         <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
         <v>154</v>
@@ -2095,24 +2095,24 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
         <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
@@ -2129,33 +2129,33 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>152</v>
@@ -2163,24 +2163,24 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
         <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
         <v>132</v>
@@ -2192,21 +2192,21 @@
         <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
         <v>152</v>
@@ -2214,50 +2214,50 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
         <v>155</v>
@@ -2265,58 +2265,58 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
         <v>160</v>
-      </c>
-      <c r="E83" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
         <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
         <v>133</v>
@@ -2328,46 +2328,46 @@
         <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
         <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
         <v>132</v>
@@ -2379,46 +2379,46 @@
         <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
         <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
         <v>132</v>
@@ -2430,21 +2430,21 @@
         <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E93" t="s">
         <v>152</v>
@@ -2452,203 +2452,203 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
         <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
         <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
         <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
         <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E105" t="s">
         <v>155</v>
@@ -2656,449 +2656,449 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
         <v>135</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B107" t="s">
         <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E107" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E110" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D112" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" t="s">
         <v>159</v>
-      </c>
-      <c r="E112" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
         <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
         <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
         <v>132</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E125" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E130" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" t="s">
         <v>163</v>
-      </c>
-      <c r="E131" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
@@ -3110,32 +3110,32 @@
         <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>145</v>
@@ -3155,13 +3155,13 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3172,13 +3172,13 @@
         <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3189,30 +3189,30 @@
         <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E137" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E138" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3223,13 +3223,13 @@
         <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D139" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3240,30 +3240,30 @@
         <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E141" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3288,33 +3288,33 @@
         <v>120</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E144" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>122</v>
       </c>
       <c r="B146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C146" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3359,13 +3359,13 @@
         <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E147" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3390,13 +3390,13 @@
         <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E149" t="s">
         <v>159</v>
@@ -3407,16 +3407,16 @@
         <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E150" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3433,7 +3433,7 @@
         <v>151</v>
       </c>
       <c r="E151" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3450,7 +3450,7 @@
         <v>152</v>
       </c>
       <c r="E152" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3478,13 +3478,13 @@
         <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D154" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" t="s">
         <v>159</v>
-      </c>
-      <c r="E154" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3501,7 +3501,7 @@
         <v>155</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C156" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D156" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3526,7 +3526,7 @@
         <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C157" t="s">
         <v>150</v>
@@ -3535,7 +3535,7 @@
         <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -37,7 +37,7 @@
     <t>2021-10-02</t>
   </si>
   <si>
-    <t>2021-10-03</t>
+    <t>2021-10-05</t>
   </si>
   <si>
     <t>2021-10-07</t>
@@ -61,9 +61,6 @@
     <t>2021-10-18</t>
   </si>
   <si>
-    <t>2021-10-19</t>
-  </si>
-  <si>
     <t>2021-10-23</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>2021-11-02</t>
+    <t>2021-11-01</t>
   </si>
   <si>
     <t>2021-11-04</t>
@@ -100,12 +97,12 @@
     <t>2021-11-14</t>
   </si>
   <si>
-    <t>2021-11-15</t>
-  </si>
-  <si>
     <t>2021-11-16</t>
   </si>
   <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
     <t>2021-11-20</t>
   </si>
   <si>
@@ -124,7 +121,10 @@
     <t>2021-11-29</t>
   </si>
   <si>
-    <t>2021-12-04</t>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
   </si>
   <si>
     <t>2021-12-05</t>
@@ -133,12 +133,12 @@
     <t>2021-12-09</t>
   </si>
   <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
     <t>2021-12-13</t>
   </si>
   <si>
-    <t>2021-12-14</t>
-  </si>
-  <si>
     <t>2021-12-16</t>
   </si>
   <si>
@@ -163,9 +163,6 @@
     <t>2021-12-30</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
     <t>2022-01-01</t>
   </si>
   <si>
@@ -175,13 +172,10 @@
     <t>2022-01-06</t>
   </si>
   <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
     <t>2022-01-08</t>
   </si>
   <si>
-    <t>2022-01-09</t>
+    <t>2022-01-10</t>
   </si>
   <si>
     <t>2022-01-11</t>
@@ -196,6 +190,9 @@
     <t>2022-01-20</t>
   </si>
   <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
     <t>2022-01-22</t>
   </si>
   <si>
@@ -223,10 +220,10 @@
     <t>2022-02-06</t>
   </si>
   <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-10</t>
   </si>
   <si>
     <t>2022-02-13</t>
@@ -244,7 +241,7 @@
     <t>2022-02-22</t>
   </si>
   <si>
-    <t>2022-02-24</t>
+    <t>2022-02-26</t>
   </si>
   <si>
     <t>2022-02-27</t>
@@ -259,15 +256,15 @@
     <t>2022-03-05</t>
   </si>
   <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
     <t>2022-03-08</t>
   </si>
   <si>
     <t>2022-03-11</t>
   </si>
   <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
     <t>2022-03-13</t>
   </si>
   <si>
@@ -280,7 +277,7 @@
     <t>2022-03-19</t>
   </si>
   <si>
-    <t>2022-03-21</t>
+    <t>2022-03-24</t>
   </si>
   <si>
     <t>2022-03-26</t>
@@ -292,18 +289,15 @@
     <t>2022-03-31</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-04-02</t>
-  </si>
-  <si>
     <t>2022-04-03</t>
   </si>
   <si>
     <t>2022-04-04</t>
   </si>
   <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
     <t>2022-04-07</t>
   </si>
   <si>
@@ -313,6 +307,9 @@
     <t>2022-04-09</t>
   </si>
   <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
     <t>2022-04-15</t>
   </si>
   <si>
@@ -322,15 +319,15 @@
     <t>2022-04-17</t>
   </si>
   <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
+    <t>2022-04-18</t>
   </si>
   <si>
     <t>2022-04-23</t>
   </si>
   <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
     <t>2022-04-29</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
     <t>2022-05-07</t>
   </si>
   <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
     <t>2022-05-13</t>
   </si>
   <si>
@@ -367,9 +367,6 @@
     <t>2022-05-21</t>
   </si>
   <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
     <t>2022-05-27</t>
   </si>
   <si>
@@ -379,12 +376,12 @@
     <t>2022-05-29</t>
   </si>
   <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
     <t>2022-05-31</t>
   </si>
   <si>
-    <t>2022-06-02</t>
-  </si>
-  <si>
     <t>2022-06-03</t>
   </si>
   <si>
@@ -421,12 +418,12 @@
     <t>19u</t>
   </si>
   <si>
+    <t>18u45u</t>
+  </si>
+  <si>
     <t>18u30</t>
   </si>
   <si>
-    <t>18u45u</t>
-  </si>
-  <si>
     <t>18u</t>
   </si>
   <si>
@@ -439,22 +436,25 @@
     <t>Yankee Stadium</t>
   </si>
   <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
     <t>Wembley Stadium</t>
   </si>
   <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
-    <t>Oracle Arena</t>
-  </si>
-  <si>
-    <t>Anfield</t>
-  </si>
-  <si>
     <t>Fenway Park</t>
   </si>
   <si>
-    <t>Old Trafford</t>
+    <t>Allianz Arena</t>
   </si>
   <si>
     <t>Santiago Bernabeu</t>
@@ -466,9 +466,6 @@
     <t>Madison Square Garden</t>
   </si>
   <si>
-    <t>Allianz Arena</t>
-  </si>
-  <si>
     <t>Stallions</t>
   </si>
   <si>
@@ -478,22 +475,25 @@
     <t>Vipers</t>
   </si>
   <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
     <t>Hurricanes</t>
   </si>
   <si>
-    <t>Raptors</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
     <t>Titans</t>
   </si>
   <si>
-    <t>Warriors</t>
+    <t>Sharks</t>
   </si>
   <si>
     <t>Lions</t>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>Thunderbolts</t>
-  </si>
-  <si>
-    <t>Sharks</t>
   </si>
 </sst>
 </file>
@@ -891,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -908,16 +905,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -925,16 +922,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -942,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
         <v>157</v>
@@ -959,16 +956,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -976,16 +973,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -993,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>162</v>
@@ -1010,16 +1007,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1027,16 +1024,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1044,16 +1041,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1064,10 +1061,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
         <v>155</v>
@@ -1078,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>145</v>
@@ -1095,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -1104,15 +1101,15 @@
         <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>147</v>
@@ -1121,21 +1118,21 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
         <v>153</v>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
@@ -1155,32 +1152,32 @@
         <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>149</v>
@@ -1189,38 +1186,38 @@
         <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
         <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
         <v>151</v>
@@ -1228,75 +1225,75 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>135</v>
@@ -1308,15 +1305,15 @@
         <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
@@ -1325,24 +1322,24 @@
         <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1350,143 +1347,143 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
@@ -1495,24 +1492,24 @@
         <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1520,30 +1517,30 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
         <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
         <v>155</v>
@@ -1551,10 +1548,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
         <v>145</v>
@@ -1563,21 +1560,21 @@
         <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
         <v>159</v>
@@ -1585,10 +1582,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>143</v>
@@ -1597,7 +1594,7 @@
         <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1605,101 +1602,101 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
         <v>159</v>
-      </c>
-      <c r="E47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1707,16 +1704,16 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1724,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>149</v>
@@ -1733,7 +1730,7 @@
         <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1741,16 +1738,16 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1758,13 +1755,13 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -1772,16 +1769,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
@@ -1789,214 +1786,214 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
         <v>155</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>147</v>
@@ -2005,38 +2002,38 @@
         <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" t="s">
         <v>156</v>
-      </c>
-      <c r="E68" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>151</v>
@@ -2044,24 +2041,24 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>133</v>
@@ -2081,7 +2078,7 @@
         <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
         <v>140</v>
@@ -2090,7 +2087,7 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2098,16 +2095,16 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2115,16 +2112,16 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2132,16 +2129,16 @@
         <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2149,16 +2146,16 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2166,16 +2163,16 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2192,7 +2189,7 @@
         <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2200,16 +2197,16 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2217,16 +2214,16 @@
         <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2234,16 +2231,16 @@
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2251,30 +2248,30 @@
         <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E83" t="s">
         <v>160</v>
@@ -2285,13 +2282,13 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" t="s">
         <v>159</v>
@@ -2305,38 +2302,38 @@
         <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
         <v>145</v>
@@ -2345,66 +2342,66 @@
         <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2413,100 +2410,100 @@
         <v>162</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
         <v>143</v>
@@ -2515,259 +2512,259 @@
         <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
         <v>154</v>
-      </c>
-      <c r="E100" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
         <v>160</v>
-      </c>
-      <c r="E103" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" t="s">
         <v>151</v>
-      </c>
-      <c r="E108" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" t="s">
         <v>153</v>
-      </c>
-      <c r="E109" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
         <v>159</v>
@@ -2775,220 +2772,220 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
         <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E114" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E122" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D124" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E124" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E125" t="s">
         <v>162</v>
@@ -2996,254 +2993,254 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E129" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E131" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E134" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
         <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E138" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E139" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E140" t="s">
         <v>155</v>
@@ -3251,220 +3248,220 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E143" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E144" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
+        <v>157</v>
+      </c>
+      <c r="E145" t="s">
         <v>159</v>
-      </c>
-      <c r="E145" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E146" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B147" t="s">
         <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E148" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E149" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E150" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C152" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E153" t="s">
         <v>162</v>
@@ -3472,70 +3469,70 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B157" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C157" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -37,6 +37,9 @@
     <t>2021-10-02</t>
   </si>
   <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
     <t>2021-10-05</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>2021-10-18</t>
   </si>
   <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
     <t>2021-10-23</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>2021-11-01</t>
   </si>
   <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
     <t>2021-11-04</t>
   </si>
   <si>
@@ -91,7 +100,7 @@
     <t>2021-11-11</t>
   </si>
   <si>
-    <t>2021-11-13</t>
+    <t>2021-11-12</t>
   </si>
   <si>
     <t>2021-11-14</t>
@@ -121,12 +130,12 @@
     <t>2021-11-29</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
     <t>2021-12-03</t>
   </si>
   <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
     <t>2021-12-05</t>
   </si>
   <si>
@@ -139,18 +148,21 @@
     <t>2021-12-13</t>
   </si>
   <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
     <t>2021-12-16</t>
   </si>
   <si>
     <t>2021-12-18</t>
   </si>
   <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
     <t>2021-12-23</t>
   </si>
   <si>
-    <t>2021-12-24</t>
-  </si>
-  <si>
     <t>2021-12-25</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>2021-12-30</t>
   </si>
   <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
     <t>2022-01-01</t>
   </si>
   <si>
@@ -172,13 +187,16 @@
     <t>2022-01-06</t>
   </si>
   <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
     <t>2022-01-08</t>
   </si>
   <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
   </si>
   <si>
     <t>2022-01-15</t>
@@ -199,9 +217,6 @@
     <t>2022-01-25</t>
   </si>
   <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
     <t>2022-01-28</t>
   </si>
   <si>
@@ -217,13 +232,13 @@
     <t>2022-02-05</t>
   </si>
   <si>
-    <t>2022-02-06</t>
+    <t>2022-02-07</t>
   </si>
   <si>
     <t>2022-02-08</t>
   </si>
   <si>
-    <t>2022-02-10</t>
+    <t>2022-02-12</t>
   </si>
   <si>
     <t>2022-02-13</t>
@@ -250,9 +265,6 @@
     <t>2022-03-03</t>
   </si>
   <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
     <t>2022-03-05</t>
   </si>
   <si>
@@ -277,36 +289,39 @@
     <t>2022-03-19</t>
   </si>
   <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
     <t>2022-03-24</t>
   </si>
   <si>
     <t>2022-03-26</t>
   </si>
   <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
     <t>2022-03-31</t>
   </si>
   <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
     <t>2022-04-03</t>
   </si>
   <si>
     <t>2022-04-04</t>
   </si>
   <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
     <t>2022-04-07</t>
   </si>
   <si>
     <t>2022-04-08</t>
   </si>
   <si>
-    <t>2022-04-09</t>
-  </si>
-  <si>
     <t>2022-04-10</t>
   </si>
   <si>
@@ -322,7 +337,7 @@
     <t>2022-04-18</t>
   </si>
   <si>
-    <t>2022-04-23</t>
+    <t>2022-04-21</t>
   </si>
   <si>
     <t>2022-04-24</t>
@@ -340,9 +355,6 @@
     <t>2022-05-05</t>
   </si>
   <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
     <t>2022-05-07</t>
   </si>
   <si>
@@ -358,27 +370,21 @@
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
     <t>2022-05-19</t>
   </si>
   <si>
     <t>2022-05-21</t>
   </si>
   <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
     <t>2022-05-27</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
     <t>2022-05-29</t>
   </si>
   <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
     <t>2022-05-31</t>
   </si>
   <si>
@@ -388,12 +394,6 @@
     <t>2022-06-04</t>
   </si>
   <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
     <t>2022-06-11</t>
   </si>
   <si>
@@ -412,54 +412,54 @@
     <t>15u</t>
   </si>
   <si>
+    <t>19u</t>
+  </si>
+  <si>
+    <t>18u30</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
-    <t>19u</t>
-  </si>
-  <si>
     <t>18u45u</t>
   </si>
   <si>
-    <t>18u30</t>
-  </si>
-  <si>
     <t>18u</t>
   </si>
   <si>
     <t>Camp Nou</t>
   </si>
   <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
+    <t>Wembley Stadium</t>
+  </si>
+  <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
     <t>Emirates Stadium</t>
   </si>
   <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
-    <t>Old Trafford</t>
-  </si>
-  <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
     <t>Oracle Arena</t>
   </si>
   <si>
     <t>Anfield</t>
   </si>
   <si>
-    <t>Wembley Stadium</t>
-  </si>
-  <si>
     <t>Fenway Park</t>
   </si>
   <si>
+    <t>Santiago Bernabeu</t>
+  </si>
+  <si>
     <t>Allianz Arena</t>
   </si>
   <si>
-    <t>Santiago Bernabeu</t>
-  </si>
-  <si>
     <t>AT&amp;T Stadium</t>
   </si>
   <si>
@@ -469,34 +469,34 @@
     <t>Stallions</t>
   </si>
   <si>
+    <t>Vipers</t>
+  </si>
+  <si>
+    <t>Hurricanes</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Vipers</t>
-  </si>
-  <si>
-    <t>Warriors</t>
-  </si>
-  <si>
-    <t>Raptors</t>
-  </si>
-  <si>
     <t>Cobras</t>
   </si>
   <si>
     <t>Eagles</t>
   </si>
   <si>
-    <t>Hurricanes</t>
-  </si>
-  <si>
     <t>Titans</t>
   </si>
   <si>
+    <t>Lions</t>
+  </si>
+  <si>
     <t>Sharks</t>
-  </si>
-  <si>
-    <t>Lions</t>
   </si>
   <si>
     <t>Falcons</t>
@@ -919,7 +919,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
@@ -931,15 +931,15 @@
         <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -948,12 +948,12 @@
         <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -965,38 +965,38 @@
         <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
         <v>151</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
         <v>162</v>
@@ -1004,75 +1004,75 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -1084,157 +1084,157 @@
         <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
         <v>150</v>
@@ -1242,214 +1242,214 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
         <v>159</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>148</v>
@@ -1458,29 +1458,29 @@
         <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
         <v>155</v>
-      </c>
-      <c r="E36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>131</v>
@@ -1492,12 +1492,12 @@
         <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
@@ -1514,254 +1514,254 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
         <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -1769,118 +1769,118 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
         <v>156</v>
@@ -1888,33 +1888,33 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
         <v>159</v>
@@ -1922,118 +1922,118 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
         <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
         <v>153</v>
-      </c>
-      <c r="E65" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
         <v>155</v>
-      </c>
-      <c r="E68" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
         <v>151</v>
@@ -2041,135 +2041,135 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
         <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
         <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
         <v>152</v>
@@ -2177,118 +2177,118 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
         <v>159</v>
@@ -2296,299 +2296,299 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
         <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E87" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
         <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
         <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
         <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
         <v>143</v>
@@ -2597,242 +2597,242 @@
         <v>156</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
         <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
         <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
         <v>159</v>
@@ -2840,67 +2840,67 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E119" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E120" t="s">
         <v>153</v>
@@ -2908,231 +2908,231 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E129" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E130" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B131" t="s">
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E132" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" t="s">
         <v>161</v>
-      </c>
-      <c r="E133" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
         <v>143</v>
@@ -3141,12 +3141,12 @@
         <v>156</v>
       </c>
       <c r="E134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
         <v>131</v>
@@ -3158,157 +3158,157 @@
         <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D137" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
         <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
         <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E139" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B141" t="s">
         <v>131</v>
       </c>
       <c r="C141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E142" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
         <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E143" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E144" t="s">
         <v>162</v>
@@ -3316,44 +3316,44 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C145" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D145" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E145" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
         <v>140</v>
@@ -3362,21 +3362,21 @@
         <v>153</v>
       </c>
       <c r="E147" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
         <v>131</v>
       </c>
       <c r="C148" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E148" t="s">
         <v>151</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C149" t="s">
         <v>146</v>
@@ -3396,15 +3396,15 @@
         <v>159</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
         <v>147</v>
@@ -3413,109 +3413,109 @@
         <v>160</v>
       </c>
       <c r="E150" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C152" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D154" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" t="s">
         <v>157</v>
-      </c>
-      <c r="E154" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B155" t="s">
         <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B156" t="s">
         <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3523,16 +3523,16 @@
         <v>130</v>
       </c>
       <c r="B157" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE A.xlsx
+++ b/example_output/LEAGUE A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Away</t>
   </si>
   <si>
-    <t>2021-10-01</t>
-  </si>
-  <si>
     <t>2021-10-02</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>2021-10-19</t>
   </si>
   <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
     <t>2021-10-23</t>
   </si>
   <si>
@@ -76,15 +76,15 @@
     <t>2021-10-28</t>
   </si>
   <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
     <t>2021-10-30</t>
   </si>
   <si>
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
     <t>2021-11-02</t>
   </si>
   <si>
@@ -100,15 +100,12 @@
     <t>2021-11-11</t>
   </si>
   <si>
-    <t>2021-11-12</t>
+    <t>2021-11-13</t>
   </si>
   <si>
     <t>2021-11-14</t>
   </si>
   <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
     <t>2021-11-18</t>
   </si>
   <si>
@@ -130,10 +127,7 @@
     <t>2021-11-29</t>
   </si>
   <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
+    <t>2021-11-30</t>
   </si>
   <si>
     <t>2021-12-05</t>
@@ -151,9 +145,6 @@
     <t>2021-12-14</t>
   </si>
   <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
     <t>2021-12-18</t>
   </si>
   <si>
@@ -163,12 +154,12 @@
     <t>2021-12-23</t>
   </si>
   <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
     <t>2021-12-25</t>
   </si>
   <si>
-    <t>2021-12-26</t>
-  </si>
-  <si>
     <t>2021-12-27</t>
   </si>
   <si>
@@ -190,10 +181,10 @@
     <t>2022-01-07</t>
   </si>
   <si>
-    <t>2022-01-08</t>
-  </si>
-  <si>
-    <t>2022-01-09</t>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
   </si>
   <si>
     <t>2022-01-13</t>
@@ -208,15 +199,15 @@
     <t>2022-01-20</t>
   </si>
   <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
     <t>2022-01-22</t>
   </si>
   <si>
     <t>2022-01-25</t>
   </si>
   <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
     <t>2022-01-28</t>
   </si>
   <si>
@@ -232,10 +223,13 @@
     <t>2022-02-05</t>
   </si>
   <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
     <t>2022-02-07</t>
   </si>
   <si>
-    <t>2022-02-08</t>
+    <t>2022-02-10</t>
   </si>
   <si>
     <t>2022-02-12</t>
@@ -265,10 +259,16 @@
     <t>2022-03-03</t>
   </si>
   <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
     <t>2022-03-05</t>
   </si>
   <si>
-    <t>2022-03-08</t>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
   </si>
   <si>
     <t>2022-03-11</t>
@@ -301,12 +301,12 @@
     <t>2022-03-26</t>
   </si>
   <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
     <t>2022-03-31</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
     <t>2022-04-02</t>
   </si>
   <si>
@@ -334,13 +334,7 @@
     <t>2022-04-17</t>
   </si>
   <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
+    <t>2022-04-23</t>
   </si>
   <si>
     <t>2022-04-29</t>
@@ -349,12 +343,12 @@
     <t>2022-04-30</t>
   </si>
   <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
     <t>2022-05-03</t>
   </si>
   <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
     <t>2022-05-07</t>
   </si>
   <si>
@@ -367,10 +361,10 @@
     <t>2022-05-14</t>
   </si>
   <si>
-    <t>2022-05-16</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
   </si>
   <si>
     <t>2022-05-21</t>
@@ -382,18 +376,30 @@
     <t>2022-05-27</t>
   </si>
   <si>
-    <t>2022-05-29</t>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
   </si>
   <si>
     <t>2022-05-31</t>
   </si>
   <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
     <t>2022-06-03</t>
   </si>
   <si>
     <t>2022-06-04</t>
   </si>
   <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
     <t>2022-06-11</t>
   </si>
   <si>
@@ -409,100 +415,100 @@
     <t>2022-06-18</t>
   </si>
   <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>18u30</t>
+  </si>
+  <si>
     <t>15u</t>
   </si>
   <si>
+    <t>18u45u</t>
+  </si>
+  <si>
     <t>19u</t>
   </si>
   <si>
-    <t>18u30</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>18u45u</t>
-  </si>
-  <si>
     <t>18u</t>
   </si>
   <si>
+    <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <t>Wembley Stadium</t>
+  </si>
+  <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
+    <t>Oracle Arena</t>
+  </si>
+  <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
+    <t>Fenway Park</t>
+  </si>
+  <si>
+    <t>Allianz Arena</t>
+  </si>
+  <si>
+    <t>Madison Square Garden</t>
+  </si>
+  <si>
     <t>Camp Nou</t>
   </si>
   <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
-    <t>Wembley Stadium</t>
-  </si>
-  <si>
-    <t>Old Trafford</t>
-  </si>
-  <si>
-    <t>Staples Center</t>
-  </si>
-  <si>
-    <t>Emirates Stadium</t>
-  </si>
-  <si>
-    <t>Oracle Arena</t>
-  </si>
-  <si>
-    <t>Anfield</t>
-  </si>
-  <si>
-    <t>Fenway Park</t>
-  </si>
-  <si>
     <t>Santiago Bernabeu</t>
   </si>
   <si>
-    <t>Allianz Arena</t>
-  </si>
-  <si>
     <t>AT&amp;T Stadium</t>
   </si>
   <si>
-    <t>Madison Square Garden</t>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Hurricanes</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
+    <t>Vipers</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>Thunderbolts</t>
   </si>
   <si>
     <t>Stallions</t>
   </si>
   <si>
-    <t>Vipers</t>
-  </si>
-  <si>
-    <t>Hurricanes</t>
-  </si>
-  <si>
-    <t>Warriors</t>
-  </si>
-  <si>
-    <t>Raptors</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Titans</t>
-  </si>
-  <si>
     <t>Lions</t>
   </si>
   <si>
-    <t>Sharks</t>
-  </si>
-  <si>
     <t>Falcons</t>
-  </si>
-  <si>
-    <t>Thunderbolts</t>
   </si>
 </sst>
 </file>
@@ -888,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>156</v>
@@ -905,16 +911,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -925,13 +931,13 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -939,16 +945,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -956,16 +962,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -973,30 +979,30 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>162</v>
@@ -1007,16 +1013,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1024,16 +1030,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1041,16 +1047,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1058,16 +1064,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1075,16 +1081,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1092,16 +1098,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1109,16 +1115,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1126,220 +1132,220 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1347,16 +1353,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1364,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
         <v>156</v>
@@ -1381,16 +1387,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1398,16 +1404,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1415,13 +1421,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
         <v>159</v>
@@ -1429,33 +1435,33 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>158</v>
@@ -1466,16 +1472,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1483,7 +1489,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
@@ -1492,24 +1498,24 @@
         <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1517,33 +1523,33 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1551,16 +1557,16 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1568,16 +1574,16 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1585,50 +1591,50 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1636,13 +1642,13 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
         <v>155</v>
@@ -1653,13 +1659,13 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
         <v>152</v>
@@ -1670,16 +1676,16 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1687,13 +1693,13 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
         <v>160</v>
@@ -1707,10 +1713,10 @@
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>155</v>
@@ -1718,36 +1724,36 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1755,16 +1761,16 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1775,13 +1781,13 @@
         <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1789,16 +1795,16 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1806,7 +1812,7 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>142</v>
@@ -1815,7 +1821,7 @@
         <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1823,16 +1829,16 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1840,41 +1846,41 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
         <v>144</v>
@@ -1883,160 +1889,160 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
         <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2044,30 +2050,30 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
         <v>153</v>
@@ -2075,53 +2081,53 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" t="s">
         <v>162</v>
-      </c>
-      <c r="E72" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2129,16 +2135,16 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2146,16 +2152,16 @@
         <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2163,16 +2169,16 @@
         <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2180,16 +2186,16 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2197,16 +2203,16 @@
         <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2214,16 +2220,16 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2231,7 +2237,7 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
         <v>142</v>
@@ -2248,16 +2254,16 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2268,10 +2274,10 @@
         <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
         <v>154</v>
@@ -2285,13 +2291,13 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2299,67 +2305,67 @@
         <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2367,16 +2373,16 @@
         <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2384,16 +2390,16 @@
         <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2401,30 +2407,30 @@
         <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
         <v>154</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2452,16 +2458,16 @@
         <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2469,30 +2475,30 @@
         <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
         <v>160</v>
@@ -2500,44 +2506,44 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C99" t="s">
         <v>144</v>
@@ -2546,253 +2552,253 @@
         <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" t="s">
         <v>135</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
         <v>153</v>
-      </c>
-      <c r="E107" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" t="s">
         <v>162</v>
-      </c>
-      <c r="E111" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E112" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
         <v>142</v>
@@ -2801,160 +2807,160 @@
         <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E116" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E121" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2962,16 +2968,16 @@
         <v>106</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E124" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2979,84 +2985,84 @@
         <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" t="s">
         <v>157</v>
-      </c>
-      <c r="E127" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3064,16 +3070,16 @@
         <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3081,16 +3087,16 @@
         <v>111</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3098,16 +3104,16 @@
         <v>112</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3115,24 +3121,24 @@
         <v>113</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
         <v>143</v>
@@ -3141,58 +3147,58 @@
         <v>156</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E135" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E136" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
         <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3200,16 +3206,16 @@
         <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E138" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3217,50 +3223,50 @@
         <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3268,67 +3274,67 @@
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E143" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3339,13 +3345,13 @@
         <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3353,16 +3359,16 @@
         <v>123</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E147" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3370,16 +3376,16 @@
         <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3387,152 +3393,152 @@
         <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
         <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E151" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C156" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B157" t="s">
         <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
